--- a/cea/databases/DE/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/DE/components/FEEDSTOCKS.xlsx
@@ -1,44 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E185C5E-DEA8-784A-98EA-EF29413303AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="43380" windowHeight="25120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NATURALGAS" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BIOGAS" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="GRID" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="SOLAR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="OIL" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="COAL" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="WOOD" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="WETBIOMASS" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="DRYBIOMASS" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="GRID" sheetId="3" r:id="rId1"/>
+    <sheet name="WOOD" sheetId="7" r:id="rId2"/>
+    <sheet name="WETBIOMASS" sheetId="8" r:id="rId3"/>
+    <sheet name="DRYBIOMASS" sheetId="9" r:id="rId4"/>
+    <sheet name="COAL" sheetId="6" r:id="rId5"/>
+    <sheet name="OIL" sheetId="5" r:id="rId6"/>
+    <sheet name="NATURALGAS" sheetId="1" r:id="rId7"/>
+    <sheet name="BIOGAS" sheetId="2" r:id="rId8"/>
+    <sheet name="HYDROGEN" sheetId="10" r:id="rId9"/>
+    <sheet name="SOLAR" sheetId="4" r:id="rId10"/>
+    <sheet name="ENERGY_CARRIERS" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={002E0022-0099-42BD-A425-000A002600C6}</author>
-    <author>tc={00930055-0069-4C5E-B73E-002B00620020}</author>
-    <author>tc={0024004B-008B-4748-AFC7-004200FE00F3}</author>
+    <author>tc={00690039-003B-460D-BCF6-00F0008200CD}</author>
+    <author>tc={00A20003-0040-4D9E-A9F6-00CA00C00031}</author>
+    <author>tc={00070014-0054-4CB9-9C2B-006400CD00C1}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{002E0022-0099-42BD-A425-000A002600C6}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00690039-003B-460D-BCF6-00F0008200CD}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -46,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -53,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00930055-0069-4C5E-B73E-002B00620020}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -67,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -74,13 +99,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{0024004B-008B-4748-AFC7-004200FE00F3}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00070014-0054-4CB9-9C2B-006400CD00C1}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -88,6 +114,88 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={002A006B-00F3-465D-926F-00B3008E006F}</author>
+    <author>tc={00C800EB-0079-4597-ADCF-0040005B0075}</author>
+    <author>tc={00B7007B-0082-4EF6-817D-007F00B5003A}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002A006B-00F3-465D-926F-00B3008E006F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jimeno:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00C800EB-0079-4597-ADCF-0040005B0075}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jimeno:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B7007B-0082-4EF6-817D-007F00B5003A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jimeno:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -102,18 +210,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={004C0076-00DE-4E86-A501-008700F5005C}</author>
-    <author>tc={003A00F0-00EC-4C19-BAB4-00C900800004}</author>
-    <author>tc={00770040-00CF-4284-98C0-007A001B004E}</author>
+    <author>tc={006300D9-005F-4513-BA6F-00A2007900B3}</author>
+    <author>tc={00480066-00A5-4F65-8DAF-00A80062009A}</author>
+    <author>tc={008A00CF-0015-45A1-85CC-005D007C0033}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{004C0076-00DE-4E86-A501-008700F5005C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{006300D9-005F-4513-BA6F-00A2007900B3}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -121,6 +230,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -128,13 +238,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{003A00F0-00EC-4C19-BAB4-00C900800004}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00480066-00A5-4F65-8DAF-00A80062009A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -142,6 +253,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -149,13 +261,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00770040-00CF-4284-98C0-007A001B004E}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{008A00CF-0015-45A1-85CC-005D007C0033}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -163,6 +276,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -177,18 +291,19 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={00690039-003B-460D-BCF6-00F0008200CD}</author>
-    <author>tc={00A20003-0040-4D9E-A9F6-00CA00C00031}</author>
-    <author>tc={00070014-0054-4CB9-9C2B-006400CD00C1}</author>
+    <author>tc={00340062-00F4-4181-811B-002900CA0064}</author>
+    <author>tc={00FE00E4-0037-4664-BD37-005E0005006D}</author>
+    <author>tc={00640047-00BD-4231-A91A-0057008C0099}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{00690039-003B-460D-BCF6-00F0008200CD}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00340062-00F4-4181-811B-002900CA0064}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -196,6 +311,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -203,13 +319,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00FE00E4-0037-4664-BD37-005E0005006D}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -217,6 +334,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -224,13 +342,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00070014-0054-4CB9-9C2B-006400CD00C1}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00640047-00BD-4231-A91A-0057008C0099}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -238,6 +357,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -252,18 +372,19 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={002A006B-00F3-465D-926F-00B3008E006F}</author>
-    <author>tc={00C800EB-0079-4597-ADCF-0040005B0075}</author>
-    <author>tc={00B7007B-0082-4EF6-817D-007F00B5003A}</author>
+    <author>tc={001E0064-009B-45BA-B3D1-00CB00A40039}</author>
+    <author>tc={00EF001A-0035-4581-A59A-00D2008D0065}</author>
+    <author>tc={0049009C-0054-40B0-ABA4-00700078003A}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{002A006B-00F3-465D-926F-00B3008E006F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{001E0064-009B-45BA-B3D1-00CB00A40039}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -271,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -278,13 +400,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00C800EB-0079-4597-ADCF-0040005B0075}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00EF001A-0035-4581-A59A-00D2008D0065}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -292,6 +415,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -299,13 +423,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00B7007B-0082-4EF6-817D-007F00B5003A}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0049009C-0054-40B0-ABA4-00700078003A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -313,6 +438,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -327,18 +453,19 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={00A2000F-00A6-4B33-A2A2-009100DF004F}</author>
-    <author>tc={002C00BC-0002-4FB6-A945-009600C30034}</author>
-    <author>tc={00B000BC-009A-4976-8B16-00AE00FC005D}</author>
+    <author>tc={000D00FC-0003-4DBE-B6AD-0088003B004F}</author>
+    <author>tc={006800B8-0025-4834-80F0-0016008E00E2}</author>
+    <author>tc={00AE00CB-00B7-4D50-A48B-00FA004E00E8}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -346,6 +473,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -353,13 +481,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{002C00BC-0002-4FB6-A945-009600C30034}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{006800B8-0025-4834-80F0-0016008E00E2}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -367,6 +496,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -374,13 +504,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00B000BC-009A-4976-8B16-00AE00FC005D}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -388,6 +519,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -402,18 +534,19 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={000D00FC-0003-4DBE-B6AD-0088003B004F}</author>
-    <author>tc={006800B8-0025-4834-80F0-0016008E00E2}</author>
-    <author>tc={00AE00CB-00B7-4D50-A48B-00FA004E00E8}</author>
+    <author>tc={00A2000F-00A6-4B33-A2A2-009100DF004F}</author>
+    <author>tc={002C00BC-0002-4FB6-A945-009600C30034}</author>
+    <author>tc={00B000BC-009A-4976-8B16-00AE00FC005D}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -421,6 +554,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -428,13 +562,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{006800B8-0025-4834-80F0-0016008E00E2}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{002C00BC-0002-4FB6-A945-009600C30034}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -442,6 +577,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -449,13 +585,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B000BC-009A-4976-8B16-00AE00FC005D}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -463,6 +600,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -477,18 +615,19 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={006300D9-005F-4513-BA6F-00A2007900B3}</author>
-    <author>tc={00480066-00A5-4F65-8DAF-00A80062009A}</author>
-    <author>tc={008A00CF-0015-45A1-85CC-005D007C0033}</author>
+    <author>tc={002E0022-0099-42BD-A425-000A002600C6}</author>
+    <author>tc={00930055-0069-4C5E-B73E-002B00620020}</author>
+    <author>tc={0024004B-008B-4748-AFC7-004200FE00F3}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{006300D9-005F-4513-BA6F-00A2007900B3}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002E0022-0099-42BD-A425-000A002600C6}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -496,6 +635,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -503,13 +643,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00480066-00A5-4F65-8DAF-00A80062009A}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00930055-0069-4C5E-B73E-002B00620020}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -517,6 +658,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -524,13 +666,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{008A00CF-0015-45A1-85CC-005D007C0033}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0024004B-008B-4748-AFC7-004200FE00F3}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -538,6 +681,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -552,18 +696,19 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={00340062-00F4-4181-811B-002900CA0064}</author>
-    <author>tc={00FE00E4-0037-4664-BD37-005E0005006D}</author>
-    <author>tc={00640047-00BD-4231-A91A-0057008C0099}</author>
+    <author>tc={004C0076-00DE-4E86-A501-008700F5005C}</author>
+    <author>tc={003A00F0-00EC-4C19-BAB4-00C900800004}</author>
+    <author>tc={00770040-00CF-4284-98C0-007A001B004E}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{00340062-00F4-4181-811B-002900CA0064}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{004C0076-00DE-4E86-A501-008700F5005C}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -571,6 +716,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
@@ -578,13 +724,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00FE00E4-0037-4664-BD37-005E0005006D}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{003A00F0-00EC-4C19-BAB4-00C900800004}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -592,6 +739,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -599,13 +747,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00640047-00BD-4231-A91A-0057008C0099}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00770040-00CF-4284-98C0-007A001B004E}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jimeno:</t>
         </r>
@@ -613,6 +762,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
@@ -627,71 +777,45 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={001E0064-009B-45BA-B3D1-00CB00A40039}</author>
-    <author>tc={00EF001A-0035-4581-A59A-00D2008D0065}</author>
-    <author>tc={0049009C-0054-40B0-ABA4-00700078003A}</author>
+    <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{001E0064-009B-45BA-B3D1-00CB00A40039}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91F6A146-4E75-014C-925E-06C33CC2B2BB}">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t>Jimeno:</t>
+          <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B71303BF-00AE-9F48-B64E-62E24C7DEA25}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
-</t>
+          <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00EF001A-0035-4581-A59A-00D2008D0065}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4686B76A-F401-414D-904C-E4BF85BE0E37}">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="2" xr:uid="{0049009C-0054-40B0-ABA4-00700078003A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
-</t>
+          <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
@@ -700,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="131">
   <si>
     <t>hour</t>
   </si>
@@ -720,7 +844,7 @@
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.002 Erdgas, destatis.de Prices Data on energy price trends 2022</t>
+    <t>KBOB 2009/1:2016, ID 41.002 Erdgas, destatis.de Prices Data on energy price trends 2022</t>
   </si>
   <si>
     <t>1</t>
@@ -792,67 +916,410 @@
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.009 Biogas, oekostromanbieter.org 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destatis.de Prices Data on energy price trends 2022, https://www.redcert.org/images/SG_DE_THG_Berechnung_Vers04.pdf für GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://efahrer.chip.de/solaranlagen 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.001 Heizöl, https://www.oeffentlichen-dienst.de/wirtschafts-news/277-ratgeber/3930-heizung.html 2022/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.004/41.005 (average), https://www.focus.de/finanzen/boerse/konjunktur/atom-kohle-gas-wind-solar-welche-stromart-uns-am-wenigsten-kostet_id_11658454.html 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.006 Stückholz (average), https://www.stuttgarter-nachrichten.de/inhalt.gas-holz-heizen-vergleich-mhsd.8f4b9f41-02ae-4668-9663-bed3d613b4fe.html 2022</t>
+    <t>KBOB 2009/1:2016, ID 41.009 Biogas, oekostromanbieter.org 2023</t>
+  </si>
+  <si>
+    <t>destatis.de Prices Data on energy price trends 2022, https://www.redcert.org/images/SG_DE_THG_Berechnung_Vers04.pdf für GHG</t>
+  </si>
+  <si>
+    <t>https://efahrer.chip.de/solaranlagen 2023</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.001 Heizöl, https://www.oeffentlichen-dienst.de/wirtschafts-news/277-ratgeber/3930-heizung.html 2022/2023</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), https://www.focus.de/finanzen/boerse/konjunktur/atom-kohle-gas-wind-solar-welche-stromart-uns-am-wenigsten-kostet_id_11658454.html 2019</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), https://www.stuttgarter-nachrichten.de/inhalt.gas-holz-heizen-vergleich-mhsd.8f4b9f41-02ae-4668-9663-bed3d613b4fe.html 2022</t>
   </si>
   <si>
     <t xml:space="preserve">KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, Technikkatalog KEA 2022 (Trendlinie ab 2021)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
+    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
+  </si>
+  <si>
+    <t>https://file.go.gov.sg/studyofhydrogenimportsanddownstreamapplicationsforsingapore.pdf</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sunlight</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>wavelength</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>Rsun</t>
+  </si>
+  <si>
+    <t>Infrared light</t>
+  </si>
+  <si>
+    <t>Ultraviolet</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t>chemical composition</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>combustible</t>
+  </si>
+  <si>
+    <t>Chyd</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.009 Biogas, cost from CEA, cost from Werke am Zurich see</t>
+  </si>
+  <si>
+    <t>BIOGAS</t>
+  </si>
+  <si>
+    <t>Cbig</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off,cost from Werke am Zurich see</t>
+  </si>
+  <si>
+    <t>NATURALGAS</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>Cgas</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.001 Heizöl, cost from CEA</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), cost from CEA</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>Ccoa</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>DRYBIOMASS</t>
+  </si>
+  <si>
+    <t>Cdbm</t>
+  </si>
+  <si>
+    <t>Dry biomass</t>
+  </si>
+  <si>
+    <t>WETBIOMASS</t>
+  </si>
+  <si>
+    <t>Cwbm</t>
+  </si>
+  <si>
+    <t>Wet biomass</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>Cwod</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20elect6ricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres.
+price:https://www.emcsg.com/marketdata/priceinformation#priceDataView
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>E66kAC</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (high voltage)</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. price: https://www.emcsg.com/marketdata/priceinformation#priceDataView
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>E22kAC</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (medium voltage)</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. 
+price: https://www.ema.gov.sg/Residential_Electricity_Tariffs.aspx 
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>E230AC</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (low voltage)</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>T0W</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>T10W</t>
+  </si>
+  <si>
+    <t>Cold water</t>
+  </si>
+  <si>
+    <t>T20W</t>
+  </si>
+  <si>
+    <t>Fresh water</t>
+  </si>
+  <si>
+    <t>T30W</t>
+  </si>
+  <si>
+    <t>Warm water (room temperature)</t>
+  </si>
+  <si>
+    <t>T60W</t>
+  </si>
+  <si>
+    <t>Hot water (medium temperature)</t>
+  </si>
+  <si>
+    <t>T100W</t>
+  </si>
+  <si>
+    <t>Hot water (high temperature)</t>
+  </si>
+  <si>
+    <t>brine</t>
+  </si>
+  <si>
+    <t>T0B</t>
+  </si>
+  <si>
+    <t>Cold brine</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>T10A</t>
+  </si>
+  <si>
+    <t>Cold air</t>
+  </si>
+  <si>
+    <t>T25A</t>
+  </si>
+  <si>
+    <t>Room temperature air</t>
+  </si>
+  <si>
+    <t>T35A</t>
+  </si>
+  <si>
+    <t>Warm air</t>
+  </si>
+  <si>
+    <t>T100A</t>
+  </si>
+  <si>
+    <t>Hot air</t>
+  </si>
+  <si>
+    <t>cost_and_ghg_tab</t>
+  </si>
+  <si>
+    <t>mean_qual</t>
+  </si>
+  <si>
+    <t>unit_qual</t>
+  </si>
+  <si>
+    <t>qualifier</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="65"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,14 +1332,26 @@
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -884,8 +1363,8 @@
       <top style="thin">
         <color rgb="FF3C3C3C"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -900,47 +1379,138 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{CBF6DE37-AC67-9843-9748-72138DC4C632}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{17467814-1BF1-E445-8BCD-AB3AA43FCF69}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -952,291 +1522,8 @@
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1500,6 +1787,7 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1657,22 +1945,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,464 +1978,1642 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="0">0.228/3.6</f>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.35</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.35</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.35</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.092999999999999985</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.35000000000000031</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.35000000000000031</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D686370D-AAAF-E54A-B3A2-0C48F8BEDD0D}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="17.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="102.33203125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="25">
+        <v>100</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="25">
+        <v>35</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="25">
+        <v>25</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="16">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="25">
+        <v>100</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="25">
+        <v>60</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="25">
+        <v>30</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="25">
+        <v>20</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="22">
+        <v>230</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="25">
+        <v>22000</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="25">
+        <v>66000</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="16">
+        <v>200</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="8.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,464 +3630,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="1">0.13/3.6</f>
-        <v>0.036111111111111115</v>
+        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D4" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D9" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>0.13</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="7.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,440 +4103,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D2" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D3" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D4" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D5" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D6" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D7" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D8" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D9" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D10" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D11" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D12" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D13" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D14" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D15" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D16" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D17" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.32</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D18" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.32</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D19" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.32</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D20" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.32</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D21" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.32</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D22" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.32</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D23" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.32</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="D24" s="5">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.32</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>0.090999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>0.35000000000000031</v>
+        <v>0.32</v>
       </c>
       <c r="D25" s="5">
-        <v>0.35000000000000031</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>31</v>
+        <v>0.32</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,440 +4576,511 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" ref="C2:D25" si="1">0.2*1.04</f>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D2" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D3" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D4" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D5" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D6" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D7" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D8" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D9" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D10" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D11" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D12" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D13" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D14" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D15" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D16" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D17" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D18" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D19" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D20" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D21" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D22" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D23" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D24" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D25" s="5">
-        <v>0.48999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="7.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,464 +5097,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="2">0.301/3.6</f>
-        <v>0.083611111111111108</v>
+        <f t="shared" ref="B2:B25" si="0">((0.399+0.439)/2)/3.6</f>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C2" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C3" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D3" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C4" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D4" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C5" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D5" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C6" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C7" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D7" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C8" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D8" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C9" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D9" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C10" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D10" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C11" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D11" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C12" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D12" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C13" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D13" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C14" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D14" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C15" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D15" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C16" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D16" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C17" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D17" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C18" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D18" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C19" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D19" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C20" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D20" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C21" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D21" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C22" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D22" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C23" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D23" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C24" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D24" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.1163888888888889</v>
       </c>
       <c r="C25" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D25" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="7.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4011,464 +5570,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="3">((0.399+0.439)/2)/3.6</f>
-        <v>0.1163888888888889</v>
+        <f t="shared" ref="B2:B25" si="0">0.301/3.6</f>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C2" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D2" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D4" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D7" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D8" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D9" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D10" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D11" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D12" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D13" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D14" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D16" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D17" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D18" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D19" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C20" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D20" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D21" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D22" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D23" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D24" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1163888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D25" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="9.57421875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4485,464 +6043,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="4">0.027/3.6</f>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" ref="B2:B25" si="0">0.228/3.6</f>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.082000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.2999999999999985E-2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4959,965 +6516,930 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="5">0.027/3.6</f>
-        <v>0.0074999999999999997</v>
+        <f t="shared" ref="B2:B25" si="0">0.13/3.6</f>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C2" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D2" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D3" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D4" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D6" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D7" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D8" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D9" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D10" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D11" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D12" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D13" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D14" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D15" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D16" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D17" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D19" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C20" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D20" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D21" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D22" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D23" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D24" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5">
+        <v>0.13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D25" s="5">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>36</v>
+        <v>0.13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF430A2-5C03-3E45-B68D-82F4CC05159E}">
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="6">0.027/3.6</f>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C2" s="5">
-        <f t="shared" ref="C2:D25" si="7">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C3" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B25" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.2261</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L64" s="13"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cea/databases/DE/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/DE/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E185C5E-DEA8-784A-98EA-EF29413303AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B4741-006B-4C0A-B154-2F5C107EB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="43380" windowHeight="25120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="3" r:id="rId1"/>
@@ -55,71 +55,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00690039-003B-460D-BCF6-00F0008200CD}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00070014-0054-4CB9-9C2B-006400CD00C1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -136,71 +94,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002A006B-00F3-465D-926F-00B3008E006F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00C800EB-0079-4597-ADCF-0040005B0075}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B7007B-0082-4EF6-817D-007F00B5003A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -217,71 +133,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{006300D9-005F-4513-BA6F-00A2007900B3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00480066-00A5-4F65-8DAF-00A80062009A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{008A00CF-0015-45A1-85CC-005D007C0033}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -298,71 +172,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00340062-00F4-4181-811B-002900CA0064}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00FE00E4-0037-4664-BD37-005E0005006D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00640047-00BD-4231-A91A-0057008C0099}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -379,71 +211,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{001E0064-009B-45BA-B3D1-00CB00A40039}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00EF001A-0035-4581-A59A-00D2008D0065}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0049009C-0054-40B0-ABA4-00700078003A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -460,71 +250,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{006800B8-0025-4834-80F0-0016008E00E2}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -541,71 +289,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{002C00BC-0002-4FB6-A945-009600C30034}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B000BC-009A-4976-8B16-00AE00FC005D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -622,71 +328,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002E0022-0099-42BD-A425-000A002600C6}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00930055-0069-4C5E-B73E-002B00620020}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0024004B-008B-4748-AFC7-004200FE00F3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -703,71 +367,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{004C0076-00DE-4E86-A501-008700F5005C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{003A00F0-00EC-4C19-BAB4-00C900800004}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00770040-00CF-4284-98C0-007A001B004E}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1230,10 +852,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,17 +890,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1409,10 +1020,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,7 +1031,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1432,33 +1043,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,31 +1077,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1518,7 +1128,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jimeno" id="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}"/>
+  <person displayName="Jimeno" id="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" userId="" providerId=""/>
 </personList>
 </file>
 
@@ -1793,15 +1403,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002E0022-0099-42BD-A425-000A002600C6}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00690039-003B-460D-BCF6-00F0008200CD}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00930055-0069-4C5E-B73E-002B00620020}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0024004B-008B-4748-AFC7-004200FE00F3}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00070014-0054-4CB9-9C2B-006400CD00C1}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1810,15 +1420,15 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{004C0076-00DE-4E86-A501-008700F5005C}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006300D9-005F-4513-BA6F-00A2007900B3}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{003A00F0-00EC-4C19-BAB4-00C900800004}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00480066-00A5-4F65-8DAF-00A80062009A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00770040-00CF-4284-98C0-007A001B004E}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{008A00CF-0015-45A1-85CC-005D007C0033}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1827,15 +1437,15 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00690039-003B-460D-BCF6-00F0008200CD}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00340062-00F4-4181-811B-002900CA0064}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A20003-0040-4D9E-A9F6-00CA00C00031}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00FE00E4-0037-4664-BD37-005E0005006D}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00070014-0054-4CB9-9C2B-006400CD00C1}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00640047-00BD-4231-A91A-0057008C0099}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1844,15 +1454,15 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002A006B-00F3-465D-926F-00B3008E006F}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{001E0064-009B-45BA-B3D1-00CB00A40039}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00C800EB-0079-4597-ADCF-0040005B0075}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00EF001A-0035-4581-A59A-00D2008D0065}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B7007B-0082-4EF6-817D-007F00B5003A}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0049009C-0054-40B0-ABA4-00700078003A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1861,15 +1471,15 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A2000F-00A6-4B33-A2A2-009100DF004F}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002C00BC-0002-4FB6-A945-009600C30034}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006800B8-0025-4834-80F0-0016008E00E2}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B000BC-009A-4976-8B16-00AE00FC005D}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1878,15 +1488,15 @@
 
 <file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{000D00FC-0003-4DBE-B6AD-0088003B004F}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006800B8-0025-4834-80F0-0016008E00E2}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002C00BC-0002-4FB6-A945-009600C30034}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B000BC-009A-4976-8B16-00AE00FC005D}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1895,15 +1505,15 @@
 
 <file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006300D9-005F-4513-BA6F-00A2007900B3}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002E0022-0099-42BD-A425-000A002600C6}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00480066-00A5-4F65-8DAF-00A80062009A}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00930055-0069-4C5E-B73E-002B00620020}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{008A00CF-0015-45A1-85CC-005D007C0033}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0024004B-008B-4748-AFC7-004200FE00F3}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1912,15 +1522,15 @@
 
 <file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00340062-00F4-4181-811B-002900CA0064}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{004C0076-00DE-4E86-A501-008700F5005C}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00FE00E4-0037-4664-BD37-005E0005006D}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{003A00F0-00EC-4C19-BAB4-00C900800004}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00640047-00BD-4231-A91A-0057008C0099}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00770040-00CF-4284-98C0-007A001B004E}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1929,15 +1539,15 @@
 
 <file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{001E0064-009B-45BA-B3D1-00CB00A40039}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002A006B-00F3-465D-926F-00B3008E006F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00EF001A-0035-4581-A59A-00D2008D0065}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00C800EB-0079-4597-ADCF-0040005B0075}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0049009C-0054-40B0-ABA4-00700078003A}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B7007B-0082-4EF6-817D-007F00B5003A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1952,16 +1562,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +1605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +1622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +1639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +1656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +1673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +1707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2148,7 +1758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +1775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +1792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +1809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +1843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +1860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2284,7 +1894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2301,7 +1911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2335,7 +1945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2352,7 +1962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +1979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2397,20 +2007,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2444,7 +2054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2597,7 +2207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2631,7 +2241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2648,7 +2258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2665,7 +2275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2682,7 +2292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2699,7 +2309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2716,7 +2326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2750,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2784,7 +2394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2846,355 +2456,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D686370D-AAAF-E54A-B3A2-0C48F8BEDD0D}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="7"/>
-    <col min="8" max="8" width="17.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="102.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="36.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.81640625" style="7"/>
+    <col min="8" max="8" width="17.1796875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="102.36328125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>100</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>35</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>25</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>10</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>100</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>60</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>30</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>20</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>10</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3203,391 +2814,391 @@
       <c r="F13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>230</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>22000</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>66000</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>74</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>68</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>59</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>48</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>200</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>1500</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3604,16 +3215,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3684,7 +3295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3720,7 +3331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3738,7 +3349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3756,7 +3367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3774,7 +3385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -3792,7 +3403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3810,7 +3421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3828,7 +3439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3846,7 +3457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3882,7 +3493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3900,7 +3511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3918,7 +3529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3936,7 +3547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3954,7 +3565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3972,7 +3583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3990,7 +3601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4008,7 +3619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4026,7 +3637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -4044,7 +3655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -4077,16 +3688,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +3732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +3750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4157,7 +3768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +3786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4193,7 +3804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4211,7 +3822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4229,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4247,7 +3858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4265,7 +3876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4283,7 +3894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +3912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -4319,7 +3930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -4337,7 +3948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -4355,7 +3966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -4373,7 +3984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +4020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4427,7 +4038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -4445,7 +4056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -4463,7 +4074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4481,7 +4092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4499,7 +4110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -4517,7 +4128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -4550,16 +4161,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4576,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4596,7 +4207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4656,7 +4267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4676,7 +4287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4736,7 +4347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4756,7 +4367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4776,7 +4387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -4796,7 +4407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -4816,7 +4427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -4836,7 +4447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -4856,7 +4467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +4487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -4916,7 +4527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4936,7 +4547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -4956,7 +4567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -4976,7 +4587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4996,7 +4607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -5016,7 +4627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5036,7 +4647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -5071,16 +4682,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +4708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +4726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5133,7 +4744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +4762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5169,7 +4780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5187,7 +4798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5205,7 +4816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5223,7 +4834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +4852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +4870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5277,7 +4888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -5295,7 +4906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5313,7 +4924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -5331,7 +4942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -5349,7 +4960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5367,7 +4978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +4996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -5403,7 +5014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -5421,7 +5032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -5439,7 +5050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5457,7 +5068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5475,7 +5086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -5493,7 +5104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5511,7 +5122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -5544,16 +5155,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5588,7 +5199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5606,7 +5217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5624,7 +5235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5642,7 +5253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5660,7 +5271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5678,7 +5289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5696,7 +5307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5714,7 +5325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5732,7 +5343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5750,7 +5361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -5768,7 +5379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5786,7 +5397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -5804,7 +5415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +5433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5840,7 +5451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5858,7 +5469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -5876,7 +5487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -5894,7 +5505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -5912,7 +5523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5930,7 +5541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5948,7 +5559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -5966,7 +5577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5984,7 +5595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -6017,16 +5628,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +5654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6061,7 +5672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +5690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6097,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6115,7 +5726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6133,7 +5744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +5762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +5780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6187,7 +5798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -6205,7 +5816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6223,7 +5834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6241,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -6259,7 +5870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -6277,7 +5888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6295,7 +5906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6313,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -6331,7 +5942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6349,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6367,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6385,7 +5996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6403,7 +6014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6421,7 +6032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -6439,7 +6050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -6457,7 +6068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -6490,16 +6101,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6516,7 +6127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6534,7 +6145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6552,7 +6163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6570,7 +6181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6588,7 +6199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6624,7 +6235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6642,7 +6253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6660,7 +6271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -6678,7 +6289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6696,7 +6307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6714,7 +6325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -6732,7 +6343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -6750,7 +6361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6768,7 +6379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6786,7 +6397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -6804,7 +6415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6822,7 +6433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6840,7 +6451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6858,7 +6469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6876,7 +6487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6894,7 +6505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -6912,7 +6523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -6930,7 +6541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -6957,21 +6568,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF430A2-5C03-3E45-B68D-82F4CC05159E}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="16.36328125" style="7" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="4" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6988,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -7005,7 +6616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -7022,7 +6633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -7039,7 +6650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -7056,7 +6667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -7073,7 +6684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -7090,7 +6701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -7107,7 +6718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -7124,7 +6735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -7141,7 +6752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +6769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -7175,7 +6786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -7192,7 +6803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -7209,7 +6820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -7226,7 +6837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -7243,7 +6854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -7260,7 +6871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -7277,7 +6888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -7294,7 +6905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
@@ -7311,7 +6922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
@@ -7328,7 +6939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -7345,7 +6956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
@@ -7362,7 +6973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
@@ -7379,7 +6990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
@@ -7396,47 +7007,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-    </row>
-    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-    </row>
-    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L64" s="13"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-    </row>
-    <row r="65" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-    </row>
-    <row r="66" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cea/databases/DE/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/DE/components/FEEDSTOCKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B4741-006B-4C0A-B154-2F5C107EB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E826E1B-62B6-422A-B7AB-B01A746F4791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="16200" windowWidth="28800" windowHeight="15300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="3" r:id="rId1"/>
@@ -2007,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2456,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D686370D-AAAF-E54A-B3A2-0C48F8BEDD0D}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
